--- a/Datasets/List of Scenarios.xlsx
+++ b/Datasets/List of Scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023/Datasets/GOOSE attack dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023-GOOSE/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="13_ncr:1_{9BCF226A-57E6-45D4-8879-8386DC7C2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D64BFE2-1471-42DA-8FCF-9A0E2D337778}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="13_ncr:1_{9BCF226A-57E6-45D4-8879-8386DC7C2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D139F49-9A76-479D-83F9-3C9A9F27BA44}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GOOSE attacks" sheetId="3" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Descriptions</t>
   </si>
   <si>
-    <t>In normal operation, mislead CBs with fake opening signals to disrupt power supply</t>
-  </si>
-  <si>
     <t>Add</t>
   </si>
   <si>
@@ -77,275 +74,9 @@
     <t>IED_FDR (FDR)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8111, 8121, 8131)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject 40 messages with 500ms HB to mislead CBs with fake opening signals every 1 mins</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8311, 8321, 8331)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject messages (500ms HB) to mislead associated CBs with fake closing signals</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8312, 8322, 8332)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject 40 messages (500ms HB) to mislead associated CBs with fake closing signals</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8411, 8421, 8431)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Alter all messages to mislead associated CBs with fake closing signals</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8412, 8422, 8432)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Alter the first 30 messages to mislead associated CBs with fake closing signals</t>
-    </r>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8112, 8122, 8132)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject 40 messages with 250ms HB to mislead CBs with fake opening signals every 1 mins</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8113, 8123, 8133)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject 15 messages with 1,4,16,64,256,1000ms HB to mislead CBs with fake opening signals every 1 mins</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8313, 8323, 8333)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject messages with 1,4,16,64,256,1000ms HB to mislead associated CBs with fake closing signals</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(8314, 8324, 8334) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Inject 30 messages with 1,4,16,64,256,1000ms HB to mislead associated CBs with fake closing signals</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8114, 8124, 8134)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject 10 messages with 1,4,16,64,256,1000ms HB to mislead CBs with fake opening signals every 1 mins</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8211, 8221, 8231)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Alter 10 messages to mislead CBs with fake opening signals every 1 mins (st and HB unchange)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8212, 8222, 8232)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Alter 10 messages to mislead CBs with fake opening signals every 1 mins (st+1 and HB changes to 1,4,16,64,256,1000ms)</t>
-    </r>
-  </si>
-  <si>
-    <t>Delete the first 40 GOOSE trip packets when a fault occurs.
-Thus, delay protection for almost 35 seconds.</t>
-  </si>
-  <si>
     <t>Sub-scenario ID</t>
   </si>
   <si>
@@ -808,124 +539,7 @@
     <t>Time sections of successive behaviours in seconds</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8512, 8522, 8532)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject 40 messages (500ms HB) to mislead other irrelevant CBs with fake opening signals</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8514, 8524, 8534)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject 30 messages with 1,4,16,64,256,1000ms HB to mislead other irrelevant CBs with fake opening signals</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8511, 8521, 8531)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject messages (500ms HB) to mislead other irrelevant CBs with fake opening signals until the associated CBs start to reset (the fault is eliminated and the systems recover).
-66bus1-66bus2 (2),   XFMR1-XFMR2 (2),   22bus1-22bus2 (2),   FDR1-FDR2 (2),    FDR3-FDR4 (2) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8513, 8523, 8533)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Inject messages with 1,4,16,64,256,1000ms HB to mislead other irrelevant CBs with fake opening signals until the associated CBs start to reset (the fault is eliminated and the systems recover).</t>
-    </r>
-  </si>
-  <si>
-    <t>When short-circuit faults happen, mislead irrelevant CBs with fake opening signals to trigger unnecessary protection, and thus deteriorate the impacts of the short-circuit faults.</t>
-  </si>
-  <si>
-    <t>When short-circuit faults happen, mislead associated CBs with fake closing signals to disable safety protection</t>
-  </si>
-  <si>
     <t>When short-circuit faults happen, delete trip messages</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(8611, 8621, 8631)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when a short-circuit fault happens, an irrelevant IED (compromised with a malicious program) publishes packets containing tripping signals until the fault is eliminated and the systems recover.
-66bus1-66bus2 (2),   XFMR1-XFMR2 (2),   22bus1-22bus2 (2),   FDR1-FDR2 (2),    FDR3-FDR4 (2) </t>
-    </r>
   </si>
   <si>
     <r>
@@ -1001,6 +615,394 @@
   </si>
   <si>
     <t>When a short-circuit fault occurs on Fault_FDR4, open CB_FDR4</t>
+  </si>
+  <si>
+    <t>In fault-free operations, compromised IEDs mislead CBs with counterfeit opening signals to disrupt the power supply</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8211, 8221, 8231)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alter 10 messages to mislead CBs with counterfeit opening signals every 1 mins (st and HB unchange)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8212, 8222, 8232)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alter 10 messages to mislead CBs with counterfeit opening signals every 1 mins (st+1 and HB changes to 1,4,16,64,256,1000ms)</t>
+    </r>
+  </si>
+  <si>
+    <t>When short-circuit faults happen, compromised IEDs mislead associated CBs with counterfeit closing signals to disable safety protection</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8411, 8421, 8431)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alter all messages to mislead associated CBs with counterfeit closing signals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8412, 8422, 8432)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alter the first 30 messages to mislead associated CBs with counterfeit closing signals</t>
+    </r>
+  </si>
+  <si>
+    <t>When short-circuit faults happen, compromised IEDs mislead irrelevant CBs with counterfeit opening signals to trigger unnecessary protection, and thus, deteriorate the impacts of the short-circuit faults.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8111, 8121, 8131)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject 40 messages with a 500ms HeartBeat (HB) to mislead CBs with counterfeit opening signals every 1 mins</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8112, 8122, 8132)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject 40 messages with a 250ms HB to mislead CBs with counterfeit opening signals every 1 mins</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8113, 8123, 8133)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject 15 messages with 1,4,16,64,256,1000ms HBs to mislead CBs with counterfeit opening signals every 1 mins</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8114, 8124, 8134)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject 10 messages with 1,4,16,64,256,1000ms HBs to mislead CBs with counterfeit opening signals every 1 mins</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8311, 8321, 8331)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject messages with a 500ms HB to mislead associated CBs with counterfeit closing signals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8312, 8322, 8332)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject 40 messages with a 500ms HB to mislead associated CBs with counterfeit closing signals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8313, 8323, 8333)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject messages with 1,4,16,64,256,1000ms HBs to mislead associated CBs with counterfeit closing signals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(8314, 8324, 8334) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inject 30 messages with 1,4,16,64,256,1000ms HBs to mislead associated CBs with counterfeit closing signals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8511, 8521, 8531)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject messages with a 500ms HB to mislead other irrelevant CBs with counterfeit opening signals until the associated CBs start to reset (the fault is eliminated and the systems recover).
+66bus1-66bus2 (pair), XFMR1-XFMR2 (pair), 
+22bus1-22bus2 (pair), FDR1-FDR2 (pair), FDR3-FDR4 (pair) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8512, 8522, 8532)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject 40 messages with a 500ms HB to mislead other irrelevant CBs with counterfeit opening signals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8513, 8523, 8533)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject messages with 1,4,16,64,256,1000ms HBs to mislead other irrelevant CBs with counterfeit opening signals until the associated CBs start to reset (the fault is eliminated and the systems recover).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8514, 8524, 8534)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inject 30 messages with 1,4,16,64,256,1000ms HBs to mislead other irrelevant CBs with counterfeit opening signals</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8611, 8621, 8631)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when a short-circuit fault happens, an irrelevant IED (compromised with a malicious program) publishes packets containing tripping signals until the fault is eliminated and the systems recover.
+66bus1-66bus2 (pair), XFMR1-XFMR2 (pair), 
+22bus1-22bus2 (pair), FDR1-FDR2 (pair), FDR3-FDR4 (pair) </t>
+    </r>
+  </si>
+  <si>
+    <t>Delete the first 40 GOOSE trip packets when a fault occurs.
+Accordingly, delay protection for almost 35 seconds.</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1449,6 +1451,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1467,9 +1490,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1515,123 +1535,123 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1662,15 +1682,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1680,6 +1691,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1691,33 +1717,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2013,7 +2012,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2048,3889 +2049,3889 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="111" t="s">
-        <v>180</v>
-      </c>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
+        <v>15</v>
+      </c>
+      <c r="K1" s="117" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="51">
+      <c r="C2" s="58">
         <v>811</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="88" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>194</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I2" s="22">
         <v>8111</v>
       </c>
       <c r="J2" s="19"/>
-      <c r="K2" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="L2" s="103"/>
+      <c r="K2" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="107"/>
       <c r="M2" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="N2" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="O2" s="103"/>
+        <v>159</v>
+      </c>
+      <c r="N2" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="107"/>
       <c r="P2" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q2" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="R2" s="103"/>
+        <v>159</v>
+      </c>
+      <c r="Q2" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="R2" s="107"/>
       <c r="S2" s="31" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="89"/>
+        <v>54</v>
+      </c>
+      <c r="G3" s="91"/>
       <c r="H3" s="5" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I3" s="22">
         <v>8111</v>
       </c>
       <c r="J3" s="19"/>
-      <c r="K3" s="68">
+      <c r="K3" s="74">
         <v>60</v>
       </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="73">
+      <c r="L3" s="74"/>
+      <c r="M3" s="97">
         <v>20</v>
       </c>
-      <c r="N3" s="68">
+      <c r="N3" s="74">
         <v>60</v>
       </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="73">
+      <c r="O3" s="74"/>
+      <c r="P3" s="97">
         <v>20</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="74">
         <v>60</v>
       </c>
-      <c r="R3" s="68"/>
-      <c r="S3" s="73">
+      <c r="R3" s="74"/>
+      <c r="S3" s="97">
         <v>20</v>
       </c>
-      <c r="T3" s="72">
+      <c r="T3" s="106">
         <f>SUM(K3:S5)</f>
         <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="84"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="10">
         <v>812</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="6">
         <v>2</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="69" t="s">
-        <v>133</v>
+        <v>55</v>
+      </c>
+      <c r="G4" s="91"/>
+      <c r="H4" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="J4" s="19"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="72"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="106"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="84"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="2">
         <v>813</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="69"/>
+        <v>91</v>
+      </c>
+      <c r="G5" s="92"/>
+      <c r="H5" s="75"/>
       <c r="I5" s="22" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="J5" s="19"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="72"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="48">
+      <c r="A6" s="63"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="55">
         <v>811</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="76" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>195</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I6" s="17">
         <v>8112</v>
       </c>
-      <c r="K6" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="L6" s="103"/>
+      <c r="K6" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="107"/>
       <c r="M6" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="N6" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="O6" s="103"/>
+        <v>159</v>
+      </c>
+      <c r="N6" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="O6" s="107"/>
       <c r="P6" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q6" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="R6" s="103"/>
+        <v>159</v>
+      </c>
+      <c r="Q6" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="R6" s="107"/>
       <c r="S6" s="31" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="50"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="77"/>
+        <v>56</v>
+      </c>
+      <c r="G7" s="79"/>
       <c r="H7" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I7" s="17">
         <v>8112</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="74">
         <v>60</v>
       </c>
-      <c r="L7" s="68"/>
-      <c r="M7" s="73">
+      <c r="L7" s="74"/>
+      <c r="M7" s="97">
         <v>10</v>
       </c>
-      <c r="N7" s="68">
+      <c r="N7" s="74">
         <v>60</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="73">
+      <c r="O7" s="74"/>
+      <c r="P7" s="97">
         <v>10</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="74">
         <v>60</v>
       </c>
-      <c r="R7" s="68"/>
-      <c r="S7" s="73">
+      <c r="R7" s="74"/>
+      <c r="S7" s="97">
         <v>10</v>
       </c>
-      <c r="T7" s="72">
+      <c r="T7" s="106">
         <f>SUM(K7:S9)</f>
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="84"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="21">
         <v>812</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="8">
         <v>2</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="77"/>
+        <v>57</v>
+      </c>
+      <c r="G8" s="79"/>
       <c r="H8" s="54" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="72"/>
+        <v>57</v>
+      </c>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="106"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="84"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="11">
         <v>813</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="8">
         <v>4</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="78"/>
+        <v>92</v>
+      </c>
+      <c r="G9" s="80"/>
       <c r="H9" s="54"/>
       <c r="I9" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="72"/>
+        <v>92</v>
+      </c>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="106"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="51">
+      <c r="A10" s="63"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="58">
         <v>811</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="88" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="G10" s="90" t="s">
+        <v>196</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I10" s="16">
         <v>8113</v>
       </c>
-      <c r="K10" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="L10" s="103"/>
+      <c r="K10" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="107"/>
       <c r="M10" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="N10" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="O10" s="103"/>
+        <v>159</v>
+      </c>
+      <c r="N10" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="O10" s="107"/>
       <c r="P10" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q10" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="R10" s="103"/>
+        <v>159</v>
+      </c>
+      <c r="Q10" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="R10" s="107"/>
       <c r="S10" s="31" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="53"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="89"/>
+        <v>58</v>
+      </c>
+      <c r="G11" s="91"/>
       <c r="H11" s="5" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I11" s="16">
         <v>8113</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="74">
         <v>60</v>
       </c>
-      <c r="L11" s="68"/>
-      <c r="M11" s="73">
+      <c r="L11" s="74"/>
+      <c r="M11" s="97">
         <v>10</v>
       </c>
-      <c r="N11" s="68">
+      <c r="N11" s="74">
         <v>60</v>
       </c>
-      <c r="O11" s="68"/>
-      <c r="P11" s="73">
+      <c r="O11" s="74"/>
+      <c r="P11" s="97">
         <v>10</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="74">
         <v>60</v>
       </c>
-      <c r="R11" s="68"/>
-      <c r="S11" s="73">
+      <c r="R11" s="74"/>
+      <c r="S11" s="97">
         <v>10</v>
       </c>
-      <c r="T11" s="72">
+      <c r="T11" s="106">
         <f>SUM(K11:S13)</f>
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="84"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="10">
         <v>812</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="69" t="s">
-        <v>133</v>
+        <v>59</v>
+      </c>
+      <c r="G12" s="91"/>
+      <c r="H12" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="72"/>
+        <v>59</v>
+      </c>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="106"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="84"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="2">
         <v>813</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="6">
         <v>4</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="69"/>
+        <v>93</v>
+      </c>
+      <c r="G13" s="92"/>
+      <c r="H13" s="75"/>
       <c r="I13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="72"/>
+        <v>93</v>
+      </c>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="106"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="48">
+      <c r="A14" s="63"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="55">
         <v>811</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="8">
         <v>1</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="76" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>197</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I14" s="17">
         <v>8114</v>
       </c>
-      <c r="K14" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="L14" s="103"/>
+      <c r="K14" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" s="107"/>
       <c r="M14" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="N14" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="O14" s="103"/>
+        <v>159</v>
+      </c>
+      <c r="N14" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" s="107"/>
       <c r="P14" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q14" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="R14" s="103"/>
+        <v>159</v>
+      </c>
+      <c r="Q14" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="R14" s="107"/>
       <c r="S14" s="31" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="50"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="77"/>
+        <v>60</v>
+      </c>
+      <c r="G15" s="79"/>
       <c r="H15" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I15" s="17">
         <v>8114</v>
       </c>
-      <c r="K15" s="68">
+      <c r="K15" s="74">
         <v>60</v>
       </c>
-      <c r="L15" s="68"/>
-      <c r="M15" s="73">
+      <c r="L15" s="74"/>
+      <c r="M15" s="97">
         <v>5</v>
       </c>
-      <c r="N15" s="68">
+      <c r="N15" s="74">
         <v>60</v>
       </c>
-      <c r="O15" s="68"/>
-      <c r="P15" s="73">
+      <c r="O15" s="74"/>
+      <c r="P15" s="97">
         <v>5</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="74">
         <v>60</v>
       </c>
-      <c r="R15" s="68"/>
-      <c r="S15" s="73">
+      <c r="R15" s="74"/>
+      <c r="S15" s="97">
         <v>5</v>
       </c>
-      <c r="T15" s="72">
+      <c r="T15" s="106">
         <f>SUM(K15:S17)</f>
         <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="84"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="21">
         <v>812</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="8">
         <v>2</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="77"/>
+        <v>61</v>
+      </c>
+      <c r="G16" s="79"/>
       <c r="H16" s="54" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="72"/>
+        <v>61</v>
+      </c>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="106"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="84"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="11">
         <v>813</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="8">
         <v>4</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="78"/>
+        <v>94</v>
+      </c>
+      <c r="G17" s="80"/>
       <c r="H17" s="54"/>
       <c r="I17" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="72"/>
+        <v>94</v>
+      </c>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="106"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="51">
+      <c r="A18" s="63"/>
+      <c r="B18" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="58">
         <v>821</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="88" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="G18" s="90" t="s">
+        <v>188</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I18" s="16">
         <v>8211</v>
       </c>
-      <c r="K18" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="L18" s="103"/>
+      <c r="K18" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="107"/>
       <c r="M18" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="N18" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="O18" s="103"/>
+        <v>159</v>
+      </c>
+      <c r="N18" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" s="107"/>
       <c r="P18" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q18" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="R18" s="103"/>
+        <v>159</v>
+      </c>
+      <c r="Q18" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="R18" s="107"/>
       <c r="S18" s="31" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="53"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="89"/>
+        <v>62</v>
+      </c>
+      <c r="G19" s="91"/>
       <c r="H19" s="5" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I19" s="16">
         <v>8211</v>
       </c>
-      <c r="K19" s="68">
+      <c r="K19" s="74">
         <v>60</v>
       </c>
-      <c r="L19" s="68"/>
-      <c r="M19" s="73">
+      <c r="L19" s="74"/>
+      <c r="M19" s="97">
         <v>10</v>
       </c>
-      <c r="N19" s="68">
+      <c r="N19" s="74">
         <v>60</v>
       </c>
-      <c r="O19" s="68"/>
-      <c r="P19" s="73">
+      <c r="O19" s="74"/>
+      <c r="P19" s="97">
         <v>10</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="74">
         <v>60</v>
       </c>
-      <c r="R19" s="68"/>
-      <c r="S19" s="73">
+      <c r="R19" s="74"/>
+      <c r="S19" s="97">
         <v>10</v>
       </c>
-      <c r="T19" s="72">
+      <c r="T19" s="106">
         <f>SUM(K19:S21)</f>
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="84"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="2">
         <v>822</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="6">
         <v>2</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="89"/>
-      <c r="H20" s="69" t="s">
-        <v>133</v>
+        <v>63</v>
+      </c>
+      <c r="G20" s="91"/>
+      <c r="H20" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="72"/>
+        <v>63</v>
+      </c>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="106"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="84"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="2">
         <v>823</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="6">
         <v>4</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="90"/>
-      <c r="H21" s="69"/>
+        <v>95</v>
+      </c>
+      <c r="G21" s="92"/>
+      <c r="H21" s="75"/>
       <c r="I21" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="72"/>
+        <v>95</v>
+      </c>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="106"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="48">
+      <c r="A22" s="63"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="55">
         <v>821</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="76" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="G22" s="78" t="s">
+        <v>189</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I22" s="17">
         <v>8212</v>
       </c>
-      <c r="K22" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="L22" s="103"/>
+      <c r="K22" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" s="107"/>
       <c r="M22" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="N22" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="O22" s="103"/>
+        <v>159</v>
+      </c>
+      <c r="N22" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="O22" s="107"/>
       <c r="P22" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q22" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="R22" s="103"/>
+        <v>159</v>
+      </c>
+      <c r="Q22" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="R22" s="107"/>
       <c r="S22" s="31" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="50"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="8">
         <v>1</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="77"/>
+        <v>64</v>
+      </c>
+      <c r="G23" s="79"/>
       <c r="H23" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I23" s="17">
         <v>8212</v>
       </c>
-      <c r="K23" s="68">
+      <c r="K23" s="74">
         <v>60</v>
       </c>
-      <c r="L23" s="68"/>
-      <c r="M23" s="73">
+      <c r="L23" s="74"/>
+      <c r="M23" s="97">
         <v>5</v>
       </c>
-      <c r="N23" s="68">
+      <c r="N23" s="74">
         <v>60</v>
       </c>
-      <c r="O23" s="68"/>
-      <c r="P23" s="73">
+      <c r="O23" s="74"/>
+      <c r="P23" s="97">
         <v>5</v>
       </c>
-      <c r="Q23" s="68">
+      <c r="Q23" s="74">
         <v>60</v>
       </c>
-      <c r="R23" s="68"/>
-      <c r="S23" s="73">
+      <c r="R23" s="74"/>
+      <c r="S23" s="97">
         <v>5</v>
       </c>
-      <c r="T23" s="72">
+      <c r="T23" s="106">
         <f>SUM(K23:S25)</f>
         <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="84"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="11">
         <v>822</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="8">
         <v>2</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="77"/>
+        <v>65</v>
+      </c>
+      <c r="G24" s="79"/>
       <c r="H24" s="54" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="72"/>
+        <v>65</v>
+      </c>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="106"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
-      <c r="B25" s="84"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="26">
         <v>823</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="39">
         <v>4</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="78"/>
+        <v>96</v>
+      </c>
+      <c r="G25" s="80"/>
       <c r="H25" s="54"/>
       <c r="I25" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="51"/>
+        <v>96</v>
+      </c>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="114"/>
+      <c r="T25" s="58"/>
     </row>
     <row r="26" spans="1:22" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="44"/>
       <c r="N26" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="O26" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="O26" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="118"/>
+    </row>
+    <row r="27" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="112"/>
-    </row>
-    <row r="27" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="51">
+      <c r="B27" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="58">
         <v>831</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E27" s="42">
         <v>1</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="I27" s="74" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="G27" s="90" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="76" t="s">
+        <v>17</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="L27" s="108" t="s">
-        <v>174</v>
-      </c>
-      <c r="M27" s="108"/>
+        <v>158</v>
+      </c>
+      <c r="L27" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="M27" s="113"/>
       <c r="N27" s="43">
         <v>30</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="P27" s="108" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q27" s="108"/>
+        <v>158</v>
+      </c>
+      <c r="P27" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q27" s="113"/>
       <c r="R27" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="S27" s="116" t="s">
-        <v>176</v>
-      </c>
-      <c r="T27" s="114" t="s">
-        <v>191</v>
-      </c>
-      <c r="U27" s="114"/>
-      <c r="V27" s="114"/>
+        <v>12</v>
+      </c>
+      <c r="S27" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="T27" s="120" t="s">
+        <v>170</v>
+      </c>
+      <c r="U27" s="120"/>
+      <c r="V27" s="120"/>
     </row>
     <row r="28" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="52"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="89"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="74"/>
+        <v>66</v>
+      </c>
+      <c r="G28" s="91"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="68">
-        <v>30</v>
-      </c>
-      <c r="L28" s="61">
+      <c r="K28" s="74">
+        <v>30</v>
+      </c>
+      <c r="L28" s="67">
         <v>60</v>
       </c>
-      <c r="M28" s="105"/>
+      <c r="M28" s="110"/>
       <c r="N28" s="33">
         <v>30</v>
       </c>
-      <c r="O28" s="68">
-        <v>30</v>
-      </c>
-      <c r="P28" s="73">
+      <c r="O28" s="74">
+        <v>30</v>
+      </c>
+      <c r="P28" s="97">
         <v>60</v>
       </c>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="55">
+      <c r="Q28" s="97"/>
+      <c r="R28" s="61">
         <f>SUM(K28:Q28)</f>
         <v>210</v>
       </c>
-      <c r="S28" s="117"/>
-      <c r="T28" s="115"/>
-      <c r="U28" s="115"/>
-      <c r="V28" s="115"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="121"/>
     </row>
     <row r="29" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="52"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="89"/>
-      <c r="H29" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="68"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="106"/>
+        <v>130</v>
+      </c>
+      <c r="G29" s="91"/>
+      <c r="H29" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="74"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="111"/>
       <c r="N29" s="33">
         <v>30</v>
       </c>
-      <c r="O29" s="68"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="117"/>
-      <c r="T29" s="115"/>
-      <c r="U29" s="115"/>
-      <c r="V29" s="115"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="121"/>
     </row>
     <row r="30" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="53"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="89"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="74"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="106"/>
+        <v>131</v>
+      </c>
+      <c r="G30" s="91"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="111"/>
       <c r="N30" s="33">
         <v>30</v>
       </c>
-      <c r="O30" s="68"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="117"/>
-      <c r="T30" s="115"/>
-      <c r="U30" s="115"/>
-      <c r="V30" s="115"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="123"/>
+      <c r="T30" s="121"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="121"/>
     </row>
     <row r="31" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="86"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="10">
         <v>832</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="6">
         <v>2</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="89"/>
-      <c r="H31" s="69" t="s">
-        <v>133</v>
+        <v>67</v>
+      </c>
+      <c r="G31" s="91"/>
+      <c r="H31" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="68"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="107"/>
+        <v>18</v>
+      </c>
+      <c r="K31" s="74"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="112"/>
       <c r="N31" s="32">
         <v>30</v>
       </c>
-      <c r="O31" s="68"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="118" t="s">
-        <v>176</v>
-      </c>
-      <c r="T31" s="115" t="s">
-        <v>192</v>
-      </c>
-      <c r="U31" s="115"/>
-      <c r="V31" s="115"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="T31" s="121" t="s">
+        <v>171</v>
+      </c>
+      <c r="U31" s="121"/>
+      <c r="V31" s="121"/>
     </row>
     <row r="32" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="86"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="88"/>
       <c r="C32" s="2">
         <v>833</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" s="6">
         <v>4</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="90"/>
-      <c r="H32" s="69"/>
+        <v>97</v>
+      </c>
+      <c r="G32" s="92"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
+        <v>19</v>
+      </c>
+      <c r="K32" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="L32" s="106"/>
+      <c r="M32" s="106"/>
       <c r="N32" s="32">
         <v>30</v>
       </c>
-      <c r="O32" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
+      <c r="O32" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P32" s="106"/>
+      <c r="Q32" s="106"/>
       <c r="R32" s="38"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="115"/>
-      <c r="U32" s="115"/>
-      <c r="V32" s="115"/>
+      <c r="S32" s="124"/>
+      <c r="T32" s="121"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="121"/>
     </row>
     <row r="33" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="48">
+      <c r="A33" s="63"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="55">
         <v>831</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E33" s="8">
         <v>1</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="91" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="G33" s="93" t="s">
+        <v>199</v>
       </c>
       <c r="H33" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="67" t="s">
-        <v>34</v>
+        <v>117</v>
+      </c>
+      <c r="I33" s="73" t="s">
+        <v>20</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="M33" s="34" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="N33" s="32">
         <v>30</v>
       </c>
       <c r="O33" s="30" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="P33" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="Q33" s="34" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="R33" s="24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="49"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E34" s="8">
         <v>1</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="91"/>
+        <v>68</v>
+      </c>
+      <c r="G34" s="93"/>
       <c r="H34" s="54"/>
-      <c r="I34" s="67"/>
-      <c r="K34" s="58">
-        <v>30</v>
-      </c>
-      <c r="L34" s="61">
+      <c r="I34" s="73"/>
+      <c r="K34" s="64">
+        <v>30</v>
+      </c>
+      <c r="L34" s="67">
         <v>20</v>
       </c>
-      <c r="M34" s="64">
+      <c r="M34" s="70">
         <v>40</v>
       </c>
       <c r="N34" s="32">
         <v>30</v>
       </c>
-      <c r="O34" s="58">
-        <v>30</v>
-      </c>
-      <c r="P34" s="61">
+      <c r="O34" s="64">
+        <v>30</v>
+      </c>
+      <c r="P34" s="67">
         <v>20</v>
       </c>
-      <c r="Q34" s="64">
+      <c r="Q34" s="70">
         <v>40</v>
       </c>
-      <c r="R34" s="51">
+      <c r="R34" s="58">
         <f>SUM(K34:Q34)</f>
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="49"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E35" s="8">
         <v>1</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="91"/>
+        <v>132</v>
+      </c>
+      <c r="G35" s="93"/>
       <c r="H35" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="I35" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="K35" s="59"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="65"/>
+        <v>118</v>
+      </c>
+      <c r="I35" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="65"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="71"/>
       <c r="N35" s="32">
         <v>30</v>
       </c>
-      <c r="O35" s="59"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="52"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="59"/>
     </row>
     <row r="36" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="50"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E36" s="8">
         <v>1</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="G36" s="91"/>
+        <v>133</v>
+      </c>
+      <c r="G36" s="93"/>
       <c r="H36" s="54"/>
-      <c r="I36" s="67"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="65"/>
+      <c r="I36" s="73"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="71"/>
       <c r="N36" s="32">
         <v>30</v>
       </c>
-      <c r="O36" s="59"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="52"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="59"/>
     </row>
     <row r="37" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="86"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="88"/>
       <c r="C37" s="21">
         <v>832</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="8">
         <v>2</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="91"/>
+        <v>69</v>
+      </c>
+      <c r="G37" s="93"/>
       <c r="H37" s="54" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K37" s="60"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="66"/>
+        <v>21</v>
+      </c>
+      <c r="K37" s="66"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="72"/>
       <c r="N37" s="32">
         <v>30</v>
       </c>
-      <c r="O37" s="60"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="53"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="60"/>
     </row>
     <row r="38" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="86"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="11">
         <v>833</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="8">
         <v>4</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G38" s="91"/>
+        <v>98</v>
+      </c>
+      <c r="G38" s="93"/>
       <c r="H38" s="54"/>
       <c r="I38" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K38" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
+        <v>22</v>
+      </c>
+      <c r="K38" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="L38" s="109"/>
+      <c r="M38" s="109"/>
       <c r="N38" s="32">
         <v>30</v>
       </c>
-      <c r="O38" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
+      <c r="O38" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P38" s="106"/>
+      <c r="Q38" s="106"/>
       <c r="R38" s="38"/>
     </row>
     <row r="39" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="51">
+      <c r="A39" s="63"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="58">
         <v>831</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="I39" s="74" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="G39" s="94" t="s">
+        <v>200</v>
+      </c>
+      <c r="H39" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="76" t="s">
+        <v>23</v>
       </c>
       <c r="K39" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="L39" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="M39" s="70"/>
+        <v>158</v>
+      </c>
+      <c r="L39" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="M39" s="108"/>
       <c r="N39" s="29">
         <v>30</v>
       </c>
       <c r="O39" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P39" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q39" s="70"/>
+        <v>158</v>
+      </c>
+      <c r="P39" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q39" s="108"/>
       <c r="R39" s="24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="52"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="92"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="74"/>
-      <c r="K40" s="68">
-        <v>30</v>
-      </c>
-      <c r="L40" s="73">
+        <v>70</v>
+      </c>
+      <c r="G40" s="94"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="76"/>
+      <c r="K40" s="74">
+        <v>30</v>
+      </c>
+      <c r="L40" s="97">
         <v>60</v>
       </c>
-      <c r="M40" s="73"/>
+      <c r="M40" s="97"/>
       <c r="N40" s="33">
         <v>30</v>
       </c>
-      <c r="O40" s="68">
-        <v>30</v>
-      </c>
-      <c r="P40" s="73">
+      <c r="O40" s="74">
+        <v>30</v>
+      </c>
+      <c r="P40" s="97">
         <v>60</v>
       </c>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="72">
+      <c r="Q40" s="97"/>
+      <c r="R40" s="106">
         <f>SUM(K40:Q40)</f>
         <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="52"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="G41" s="92"/>
-      <c r="H41" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="I41" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="K41" s="68"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
+        <v>134</v>
+      </c>
+      <c r="G41" s="94"/>
+      <c r="H41" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="74"/>
+      <c r="L41" s="97"/>
+      <c r="M41" s="97"/>
       <c r="N41" s="33">
         <v>30</v>
       </c>
-      <c r="O41" s="68"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="72"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="97"/>
+      <c r="R41" s="106"/>
     </row>
     <row r="42" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="53"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="G42" s="92"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="74"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
+        <v>135</v>
+      </c>
+      <c r="G42" s="94"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="76"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="97"/>
       <c r="N42" s="33">
         <v>30</v>
       </c>
-      <c r="O42" s="68"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="72"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="97"/>
+      <c r="R42" s="106"/>
     </row>
     <row r="43" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="86"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="88"/>
       <c r="C43" s="10">
         <v>832</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" s="6">
         <v>2</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="92"/>
-      <c r="H43" s="69" t="s">
-        <v>133</v>
+        <v>71</v>
+      </c>
+      <c r="G43" s="94"/>
+      <c r="H43" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K43" s="68"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
+        <v>24</v>
+      </c>
+      <c r="K43" s="74"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
       <c r="N43" s="32">
         <v>30</v>
       </c>
-      <c r="O43" s="68"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="72"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="106"/>
     </row>
     <row r="44" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="86"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="88"/>
       <c r="C44" s="2">
         <v>833</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="6">
         <v>4</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" s="92"/>
-      <c r="H44" s="69"/>
+        <v>99</v>
+      </c>
+      <c r="G44" s="94"/>
+      <c r="H44" s="75"/>
       <c r="I44" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="K44" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
+        <v>25</v>
+      </c>
+      <c r="K44" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="L44" s="106"/>
+      <c r="M44" s="106"/>
       <c r="N44" s="32">
         <v>30</v>
       </c>
-      <c r="O44" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
+      <c r="O44" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P44" s="106"/>
+      <c r="Q44" s="106"/>
       <c r="R44" s="38"/>
     </row>
     <row r="45" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="48">
+      <c r="A45" s="63"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="55">
         <v>831</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E45" s="8">
         <v>1</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="91" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="G45" s="93" t="s">
+        <v>201</v>
       </c>
       <c r="H45" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="I45" s="67" t="s">
-        <v>40</v>
+        <v>117</v>
+      </c>
+      <c r="I45" s="73" t="s">
+        <v>26</v>
       </c>
       <c r="K45" s="30" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L45" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="M45" s="34" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="N45" s="32">
         <v>30</v>
       </c>
       <c r="O45" s="30" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="P45" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="Q45" s="34" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="R45" s="24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="49"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E46" s="8">
         <v>1</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="G46" s="91"/>
+        <v>72</v>
+      </c>
+      <c r="G46" s="93"/>
       <c r="H46" s="54"/>
-      <c r="I46" s="67"/>
-      <c r="K46" s="58">
-        <v>30</v>
-      </c>
-      <c r="L46" s="61">
+      <c r="I46" s="73"/>
+      <c r="K46" s="64">
+        <v>30</v>
+      </c>
+      <c r="L46" s="67">
         <v>25</v>
       </c>
-      <c r="M46" s="64">
+      <c r="M46" s="70">
         <v>35</v>
       </c>
       <c r="N46" s="32">
         <v>30</v>
       </c>
-      <c r="O46" s="58">
-        <v>30</v>
-      </c>
-      <c r="P46" s="61">
+      <c r="O46" s="64">
+        <v>30</v>
+      </c>
+      <c r="P46" s="67">
         <v>25</v>
       </c>
-      <c r="Q46" s="64">
+      <c r="Q46" s="70">
         <v>35</v>
       </c>
-      <c r="R46" s="51">
+      <c r="R46" s="58">
         <f>SUM(K46:Q46)</f>
         <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="49"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="56"/>
       <c r="D47" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E47" s="8">
         <v>1</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="G47" s="91"/>
+        <v>136</v>
+      </c>
+      <c r="G47" s="93"/>
       <c r="H47" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="I47" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="K47" s="59"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="65"/>
+        <v>118</v>
+      </c>
+      <c r="I47" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" s="65"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="71"/>
       <c r="N47" s="32">
         <v>30</v>
       </c>
-      <c r="O47" s="59"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="65"/>
-      <c r="R47" s="52"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="59"/>
     </row>
     <row r="48" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="50"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E48" s="8">
         <v>1</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="G48" s="91"/>
+        <v>137</v>
+      </c>
+      <c r="G48" s="93"/>
       <c r="H48" s="54"/>
-      <c r="I48" s="67"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="65"/>
+      <c r="I48" s="73"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="71"/>
       <c r="N48" s="32">
         <v>30</v>
       </c>
-      <c r="O48" s="59"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="52"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="68"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="59"/>
     </row>
     <row r="49" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="86"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="88"/>
       <c r="C49" s="21">
         <v>832</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="8">
         <v>2</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G49" s="91"/>
+        <v>73</v>
+      </c>
+      <c r="G49" s="93"/>
       <c r="H49" s="54" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K49" s="60"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="66"/>
+        <v>27</v>
+      </c>
+      <c r="K49" s="66"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="72"/>
       <c r="N49" s="32">
         <v>30</v>
       </c>
-      <c r="O49" s="60"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="66"/>
-      <c r="R49" s="53"/>
+      <c r="O49" s="66"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="60"/>
     </row>
     <row r="50" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="87"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="89"/>
       <c r="C50" s="11">
         <v>833</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" s="8">
         <v>4</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" s="91"/>
+        <v>100</v>
+      </c>
+      <c r="G50" s="93"/>
       <c r="H50" s="54"/>
       <c r="I50" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K50" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
+        <v>28</v>
+      </c>
+      <c r="K50" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="L50" s="109"/>
+      <c r="M50" s="109"/>
       <c r="N50" s="32">
         <v>30</v>
       </c>
-      <c r="O50" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="72"/>
+      <c r="O50" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P50" s="106"/>
+      <c r="Q50" s="106"/>
       <c r="R50" s="38"/>
     </row>
     <row r="51" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="51">
+      <c r="A51" s="63"/>
+      <c r="B51" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="58">
         <v>841</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="I51" s="74" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="G51" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="H51" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="76" t="s">
+        <v>29</v>
       </c>
       <c r="K51" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="L51" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="M51" s="70"/>
+        <v>158</v>
+      </c>
+      <c r="L51" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="M51" s="108"/>
       <c r="N51" s="32">
         <v>30</v>
       </c>
       <c r="O51" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P51" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q51" s="70"/>
+        <v>158</v>
+      </c>
+      <c r="P51" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q51" s="108"/>
       <c r="R51" s="24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="52"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="59"/>
       <c r="D52" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="G52" s="93"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="74"/>
-      <c r="K52" s="68">
-        <v>30</v>
-      </c>
-      <c r="L52" s="73">
+        <v>74</v>
+      </c>
+      <c r="G52" s="95"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="76"/>
+      <c r="K52" s="74">
+        <v>30</v>
+      </c>
+      <c r="L52" s="97">
         <v>60</v>
       </c>
-      <c r="M52" s="73"/>
+      <c r="M52" s="97"/>
       <c r="N52" s="32">
         <v>30</v>
       </c>
-      <c r="O52" s="68">
-        <v>30</v>
-      </c>
-      <c r="P52" s="73">
+      <c r="O52" s="74">
+        <v>30</v>
+      </c>
+      <c r="P52" s="97">
         <v>60</v>
       </c>
-      <c r="Q52" s="73"/>
-      <c r="R52" s="72">
+      <c r="Q52" s="97"/>
+      <c r="R52" s="106">
         <f>SUM(K52:Q52)</f>
         <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="52"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="59"/>
       <c r="D53" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="G53" s="93"/>
-      <c r="H53" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="I53" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="K53" s="68"/>
-      <c r="L53" s="73"/>
-      <c r="M53" s="73"/>
+        <v>138</v>
+      </c>
+      <c r="G53" s="95"/>
+      <c r="H53" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="I53" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="74"/>
+      <c r="L53" s="97"/>
+      <c r="M53" s="97"/>
       <c r="N53" s="32">
         <v>30</v>
       </c>
-      <c r="O53" s="68"/>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="73"/>
-      <c r="R53" s="72"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="97"/>
+      <c r="Q53" s="97"/>
+      <c r="R53" s="106"/>
     </row>
     <row r="54" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="53"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="60"/>
       <c r="D54" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="G54" s="92"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="74"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="73"/>
-      <c r="M54" s="73"/>
+        <v>139</v>
+      </c>
+      <c r="G54" s="94"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="76"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="97"/>
+      <c r="M54" s="97"/>
       <c r="N54" s="32">
         <v>30</v>
       </c>
-      <c r="O54" s="68"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="72"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="97"/>
+      <c r="Q54" s="97"/>
+      <c r="R54" s="106"/>
     </row>
     <row r="55" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="82"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="84"/>
       <c r="C55" s="2">
         <v>842</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="6">
         <v>2</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55" s="92"/>
-      <c r="H55" s="69" t="s">
-        <v>133</v>
+        <v>75</v>
+      </c>
+      <c r="G55" s="94"/>
+      <c r="H55" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="K55" s="68"/>
-      <c r="L55" s="73"/>
-      <c r="M55" s="73"/>
+        <v>30</v>
+      </c>
+      <c r="K55" s="74"/>
+      <c r="L55" s="97"/>
+      <c r="M55" s="97"/>
       <c r="N55" s="32">
         <v>30</v>
       </c>
-      <c r="O55" s="68"/>
-      <c r="P55" s="73"/>
-      <c r="Q55" s="73"/>
-      <c r="R55" s="72"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="97"/>
+      <c r="Q55" s="97"/>
+      <c r="R55" s="106"/>
     </row>
     <row r="56" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="82"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="84"/>
       <c r="C56" s="2">
         <v>843</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56" s="6">
         <v>4</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="G56" s="92"/>
-      <c r="H56" s="69"/>
+        <v>101</v>
+      </c>
+      <c r="G56" s="94"/>
+      <c r="H56" s="75"/>
       <c r="I56" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="K56" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
+        <v>31</v>
+      </c>
+      <c r="K56" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="L56" s="106"/>
+      <c r="M56" s="106"/>
       <c r="N56" s="32">
         <v>30</v>
       </c>
-      <c r="O56" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="P56" s="72"/>
-      <c r="Q56" s="72"/>
+      <c r="O56" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P56" s="106"/>
+      <c r="Q56" s="106"/>
       <c r="R56" s="38"/>
     </row>
     <row r="57" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="48">
+      <c r="A57" s="63"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="55">
         <v>841</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E57" s="8">
         <v>1</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G57" s="94" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="G57" s="96" t="s">
+        <v>192</v>
       </c>
       <c r="H57" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="I57" s="67" t="s">
-        <v>46</v>
+        <v>117</v>
+      </c>
+      <c r="I57" s="73" t="s">
+        <v>32</v>
       </c>
       <c r="K57" s="30" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L57" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="M57" s="34" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="N57" s="32">
         <v>30</v>
       </c>
       <c r="O57" s="30" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="P57" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="Q57" s="34" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="R57" s="24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="49"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="56"/>
       <c r="D58" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E58" s="8">
         <v>1</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="G58" s="94"/>
+        <v>76</v>
+      </c>
+      <c r="G58" s="96"/>
       <c r="H58" s="54"/>
-      <c r="I58" s="67"/>
-      <c r="K58" s="58">
-        <v>30</v>
-      </c>
-      <c r="L58" s="61">
+      <c r="I58" s="73"/>
+      <c r="K58" s="64">
+        <v>30</v>
+      </c>
+      <c r="L58" s="67">
         <v>25</v>
       </c>
-      <c r="M58" s="64">
+      <c r="M58" s="70">
         <v>35</v>
       </c>
       <c r="N58" s="32">
         <v>30</v>
       </c>
-      <c r="O58" s="58">
-        <v>30</v>
-      </c>
-      <c r="P58" s="61">
+      <c r="O58" s="64">
+        <v>30</v>
+      </c>
+      <c r="P58" s="67">
         <v>25</v>
       </c>
-      <c r="Q58" s="64">
+      <c r="Q58" s="70">
         <v>35</v>
       </c>
-      <c r="R58" s="51">
+      <c r="R58" s="58">
         <f>SUM(K58:Q58)</f>
         <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="49"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="56"/>
       <c r="D59" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E59" s="8">
         <v>1</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="G59" s="94"/>
+        <v>140</v>
+      </c>
+      <c r="G59" s="96"/>
       <c r="H59" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="I59" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="K59" s="59"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="65"/>
+        <v>118</v>
+      </c>
+      <c r="I59" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="65"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="71"/>
       <c r="N59" s="32">
         <v>30</v>
       </c>
-      <c r="O59" s="59"/>
-      <c r="P59" s="62"/>
-      <c r="Q59" s="65"/>
-      <c r="R59" s="52"/>
+      <c r="O59" s="65"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="59"/>
     </row>
     <row r="60" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="50"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E60" s="8">
         <v>1</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="G60" s="91"/>
+        <v>141</v>
+      </c>
+      <c r="G60" s="93"/>
       <c r="H60" s="54"/>
-      <c r="I60" s="67"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="65"/>
+      <c r="I60" s="73"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="71"/>
       <c r="N60" s="32">
         <v>30</v>
       </c>
-      <c r="O60" s="59"/>
-      <c r="P60" s="62"/>
-      <c r="Q60" s="65"/>
-      <c r="R60" s="52"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="59"/>
     </row>
     <row r="61" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="82"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="84"/>
       <c r="C61" s="11">
         <v>842</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61" s="8">
         <v>2</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="G61" s="91"/>
+        <v>77</v>
+      </c>
+      <c r="G61" s="93"/>
       <c r="H61" s="54" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K61" s="60"/>
-      <c r="L61" s="63"/>
-      <c r="M61" s="66"/>
+        <v>33</v>
+      </c>
+      <c r="K61" s="66"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="72"/>
       <c r="N61" s="32">
         <v>30</v>
       </c>
-      <c r="O61" s="60"/>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="53"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="69"/>
+      <c r="Q61" s="72"/>
+      <c r="R61" s="60"/>
     </row>
     <row r="62" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="80"/>
-      <c r="B62" s="83"/>
+      <c r="A62" s="82"/>
+      <c r="B62" s="85"/>
       <c r="C62" s="11">
         <v>843</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62" s="8">
         <v>4</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="G62" s="91"/>
+        <v>102</v>
+      </c>
+      <c r="G62" s="93"/>
       <c r="H62" s="54"/>
       <c r="I62" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K62" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
+        <v>34</v>
+      </c>
+      <c r="K62" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="L62" s="109"/>
+      <c r="M62" s="109"/>
       <c r="N62" s="32">
         <v>30</v>
       </c>
-      <c r="O62" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="P62" s="72"/>
-      <c r="Q62" s="72"/>
+      <c r="O62" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P62" s="106"/>
+      <c r="Q62" s="106"/>
       <c r="R62" s="38"/>
     </row>
-    <row r="63" spans="1:20" s="57" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="56"/>
-      <c r="R63" s="56"/>
-      <c r="S63" s="56"/>
-      <c r="T63" s="56"/>
+    <row r="63" spans="1:20" s="63" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="62"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="62"/>
+      <c r="O63" s="62"/>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="62"/>
+      <c r="S63" s="62"/>
+      <c r="T63" s="62"/>
     </row>
     <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="B64" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="51">
+      <c r="A64" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="58">
         <v>851</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E64" s="6">
         <v>1</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="G64" s="88" t="s">
-        <v>183</v>
-      </c>
-      <c r="H64" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="I64" s="74" t="s">
-        <v>124</v>
+        <v>47</v>
+      </c>
+      <c r="G64" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="H64" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="I64" s="76" t="s">
+        <v>110</v>
       </c>
       <c r="K64" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="L64" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="M64" s="70"/>
+        <v>158</v>
+      </c>
+      <c r="L64" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="M64" s="108"/>
       <c r="N64" s="32">
         <v>30</v>
       </c>
       <c r="O64" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P64" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q64" s="70"/>
+        <v>158</v>
+      </c>
+      <c r="P64" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q64" s="108"/>
       <c r="R64" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
-      <c r="B65" s="86"/>
-      <c r="C65" s="52"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="63"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="59"/>
       <c r="D65" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G65" s="89"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="74"/>
-      <c r="K65" s="68">
-        <v>30</v>
-      </c>
-      <c r="L65" s="73">
+        <v>78</v>
+      </c>
+      <c r="G65" s="91"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="76"/>
+      <c r="K65" s="74">
+        <v>30</v>
+      </c>
+      <c r="L65" s="97">
         <v>60</v>
       </c>
-      <c r="M65" s="73"/>
+      <c r="M65" s="97"/>
       <c r="N65" s="32">
         <v>30</v>
       </c>
-      <c r="O65" s="68">
-        <v>30</v>
-      </c>
-      <c r="P65" s="73">
+      <c r="O65" s="74">
+        <v>30</v>
+      </c>
+      <c r="P65" s="97">
         <v>60</v>
       </c>
-      <c r="Q65" s="73"/>
-      <c r="R65" s="72">
+      <c r="Q65" s="97"/>
+      <c r="R65" s="106">
         <f>SUM(K65:Q65)</f>
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="86"/>
-      <c r="C66" s="52"/>
+    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="63"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="59"/>
       <c r="D66" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66" s="91"/>
+      <c r="H66" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="I66" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="K66" s="74"/>
+      <c r="L66" s="97"/>
+      <c r="M66" s="97"/>
+      <c r="N66" s="32">
+        <v>30</v>
+      </c>
+      <c r="O66" s="74"/>
+      <c r="P66" s="97"/>
+      <c r="Q66" s="97"/>
+      <c r="R66" s="106"/>
+    </row>
+    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="63"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
+      <c r="F67" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E66" s="6">
-        <v>1</v>
-      </c>
-      <c r="F66" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="G66" s="89"/>
-      <c r="H66" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="I66" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="K66" s="68"/>
-      <c r="L66" s="73"/>
-      <c r="M66" s="73"/>
-      <c r="N66" s="32">
-        <v>30</v>
-      </c>
-      <c r="O66" s="68"/>
-      <c r="P66" s="73"/>
-      <c r="Q66" s="73"/>
-      <c r="R66" s="72"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E67" s="6">
-        <v>1</v>
-      </c>
-      <c r="F67" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G67" s="89"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="74"/>
-      <c r="K67" s="68"/>
-      <c r="L67" s="73"/>
-      <c r="M67" s="73"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="76"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="97"/>
+      <c r="M67" s="97"/>
       <c r="N67" s="32">
         <v>30</v>
       </c>
-      <c r="O67" s="68"/>
-      <c r="P67" s="73"/>
-      <c r="Q67" s="73"/>
-      <c r="R67" s="72"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
-      <c r="B68" s="86"/>
+      <c r="O67" s="74"/>
+      <c r="P67" s="97"/>
+      <c r="Q67" s="97"/>
+      <c r="R67" s="106"/>
+    </row>
+    <row r="68" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="63"/>
+      <c r="B68" s="88"/>
       <c r="C68" s="10">
         <v>852</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68" s="6">
         <v>2</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G68" s="89"/>
-      <c r="H68" s="69" t="s">
-        <v>133</v>
+        <v>79</v>
+      </c>
+      <c r="G68" s="91"/>
+      <c r="H68" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="K68" s="68"/>
-      <c r="L68" s="73"/>
-      <c r="M68" s="73"/>
+        <v>79</v>
+      </c>
+      <c r="K68" s="74"/>
+      <c r="L68" s="97"/>
+      <c r="M68" s="97"/>
       <c r="N68" s="32">
         <v>30</v>
       </c>
-      <c r="O68" s="68"/>
-      <c r="P68" s="73"/>
-      <c r="Q68" s="73"/>
-      <c r="R68" s="72"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
-      <c r="B69" s="86"/>
+      <c r="O68" s="74"/>
+      <c r="P68" s="97"/>
+      <c r="Q68" s="97"/>
+      <c r="R68" s="106"/>
+    </row>
+    <row r="69" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="63"/>
+      <c r="B69" s="88"/>
       <c r="C69" s="2">
         <v>853</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69" s="6">
         <v>4</v>
       </c>
       <c r="F69" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" s="92"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K69" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="L69" s="106"/>
+      <c r="M69" s="106"/>
+      <c r="N69" s="32">
+        <v>30</v>
+      </c>
+      <c r="O69" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P69" s="106"/>
+      <c r="Q69" s="106"/>
+      <c r="R69" s="38"/>
+    </row>
+    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="63"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="55">
+        <v>851</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="8">
+        <v>1</v>
+      </c>
+      <c r="F70" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G70" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="H70" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="90"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="K69" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="L69" s="72"/>
-      <c r="M69" s="72"/>
-      <c r="N69" s="32">
-        <v>30</v>
-      </c>
-      <c r="O69" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="P69" s="72"/>
-      <c r="Q69" s="72"/>
-      <c r="R69" s="38"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
-      <c r="B70" s="86"/>
-      <c r="C70" s="48">
-        <v>851</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E70" s="8">
-        <v>1</v>
-      </c>
-      <c r="F70" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G70" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="H70" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="I70" s="67" t="s">
-        <v>125</v>
+      <c r="I70" s="73" t="s">
+        <v>111</v>
       </c>
       <c r="K70" s="30" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L70" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="M70" s="34" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="N70" s="32">
         <v>30</v>
       </c>
       <c r="O70" s="30" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="P70" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="Q70" s="34" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="R70" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
-      <c r="B71" s="86"/>
-      <c r="C71" s="49"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="63"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="56"/>
       <c r="D71" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E71" s="8">
         <v>1</v>
       </c>
       <c r="F71" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="G71" s="77"/>
+        <v>80</v>
+      </c>
+      <c r="G71" s="79"/>
       <c r="H71" s="54"/>
-      <c r="I71" s="67"/>
-      <c r="K71" s="58">
-        <v>30</v>
-      </c>
-      <c r="L71" s="61">
+      <c r="I71" s="73"/>
+      <c r="K71" s="64">
+        <v>30</v>
+      </c>
+      <c r="L71" s="67">
         <v>20</v>
       </c>
-      <c r="M71" s="64">
+      <c r="M71" s="70">
         <v>40</v>
       </c>
       <c r="N71" s="32">
         <v>30</v>
       </c>
-      <c r="O71" s="58">
-        <v>30</v>
-      </c>
-      <c r="P71" s="61">
+      <c r="O71" s="64">
+        <v>30</v>
+      </c>
+      <c r="P71" s="67">
         <v>20</v>
       </c>
-      <c r="Q71" s="64">
+      <c r="Q71" s="70">
         <v>40</v>
       </c>
-      <c r="R71" s="51">
+      <c r="R71" s="58">
         <f>SUM(K71:Q71)</f>
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
-      <c r="B72" s="86"/>
-      <c r="C72" s="49"/>
+    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="63"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="56"/>
       <c r="D72" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E72" s="8">
         <v>1</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="G72" s="77"/>
+        <v>144</v>
+      </c>
+      <c r="G72" s="79"/>
       <c r="H72" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="I72" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="K72" s="59"/>
-      <c r="L72" s="62"/>
-      <c r="M72" s="65"/>
+        <v>118</v>
+      </c>
+      <c r="I72" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="K72" s="65"/>
+      <c r="L72" s="68"/>
+      <c r="M72" s="71"/>
       <c r="N72" s="32">
         <v>30</v>
       </c>
-      <c r="O72" s="59"/>
-      <c r="P72" s="62"/>
-      <c r="Q72" s="65"/>
-      <c r="R72" s="52"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
-      <c r="B73" s="86"/>
-      <c r="C73" s="50"/>
+      <c r="O72" s="65"/>
+      <c r="P72" s="68"/>
+      <c r="Q72" s="71"/>
+      <c r="R72" s="59"/>
+    </row>
+    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="63"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="57"/>
       <c r="D73" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E73" s="8">
         <v>1</v>
       </c>
       <c r="F73" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G73" s="77"/>
+        <v>145</v>
+      </c>
+      <c r="G73" s="79"/>
       <c r="H73" s="54"/>
-      <c r="I73" s="67"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="62"/>
-      <c r="M73" s="65"/>
+      <c r="I73" s="73"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="68"/>
+      <c r="M73" s="71"/>
       <c r="N73" s="32">
         <v>30</v>
       </c>
-      <c r="O73" s="59"/>
-      <c r="P73" s="62"/>
-      <c r="Q73" s="65"/>
-      <c r="R73" s="52"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="57"/>
-      <c r="B74" s="86"/>
+      <c r="O73" s="65"/>
+      <c r="P73" s="68"/>
+      <c r="Q73" s="71"/>
+      <c r="R73" s="59"/>
+    </row>
+    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="63"/>
+      <c r="B74" s="88"/>
       <c r="C74" s="21">
         <v>852</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74" s="8">
         <v>2</v>
       </c>
       <c r="F74" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="G74" s="77"/>
+        <v>81</v>
+      </c>
+      <c r="G74" s="79"/>
       <c r="H74" s="54" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="K74" s="60"/>
-      <c r="L74" s="63"/>
-      <c r="M74" s="66"/>
+        <v>81</v>
+      </c>
+      <c r="K74" s="66"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="72"/>
       <c r="N74" s="32">
         <v>30</v>
       </c>
-      <c r="O74" s="60"/>
-      <c r="P74" s="63"/>
-      <c r="Q74" s="66"/>
-      <c r="R74" s="53"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
-      <c r="B75" s="86"/>
+      <c r="O74" s="66"/>
+      <c r="P74" s="69"/>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="60"/>
+    </row>
+    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="63"/>
+      <c r="B75" s="88"/>
       <c r="C75" s="11">
         <v>853</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E75" s="8">
         <v>4</v>
       </c>
       <c r="F75" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="G75" s="78"/>
+        <v>104</v>
+      </c>
+      <c r="G75" s="80"/>
       <c r="H75" s="54"/>
       <c r="I75" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="K75" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="L75" s="71"/>
-      <c r="M75" s="71"/>
+        <v>104</v>
+      </c>
+      <c r="K75" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="L75" s="109"/>
+      <c r="M75" s="109"/>
       <c r="N75" s="32">
         <v>30</v>
       </c>
-      <c r="O75" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="P75" s="72"/>
-      <c r="Q75" s="72"/>
+      <c r="O75" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P75" s="106"/>
+      <c r="Q75" s="106"/>
       <c r="R75" s="38"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
-      <c r="B76" s="86"/>
-      <c r="C76" s="51">
+    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="63"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="58">
         <v>851</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E76" s="6">
         <v>1</v>
       </c>
       <c r="F76" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="G76" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="H76" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="I76" s="74" t="s">
-        <v>126</v>
+        <v>49</v>
+      </c>
+      <c r="G76" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="H76" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="I76" s="76" t="s">
+        <v>112</v>
       </c>
       <c r="K76" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="L76" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="M76" s="70"/>
+        <v>158</v>
+      </c>
+      <c r="L76" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="M76" s="108"/>
       <c r="N76" s="32">
         <v>30</v>
       </c>
       <c r="O76" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P76" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q76" s="70"/>
+        <v>158</v>
+      </c>
+      <c r="P76" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q76" s="108"/>
       <c r="R76" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="57"/>
-      <c r="B77" s="86"/>
-      <c r="C77" s="52"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="63"/>
+      <c r="B77" s="88"/>
+      <c r="C77" s="59"/>
       <c r="D77" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
       </c>
       <c r="F77" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="G77" s="89"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="74"/>
-      <c r="K77" s="68">
-        <v>30</v>
-      </c>
-      <c r="L77" s="73">
+        <v>82</v>
+      </c>
+      <c r="G77" s="91"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="76"/>
+      <c r="K77" s="74">
+        <v>30</v>
+      </c>
+      <c r="L77" s="97">
         <v>60</v>
       </c>
-      <c r="M77" s="73"/>
+      <c r="M77" s="97"/>
       <c r="N77" s="32">
         <v>30</v>
       </c>
-      <c r="O77" s="68">
-        <v>30</v>
-      </c>
-      <c r="P77" s="73">
+      <c r="O77" s="74">
+        <v>30</v>
+      </c>
+      <c r="P77" s="97">
         <v>60</v>
       </c>
-      <c r="Q77" s="73"/>
-      <c r="R77" s="72">
+      <c r="Q77" s="97"/>
+      <c r="R77" s="106">
         <f>SUM(K77:Q77)</f>
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
-      <c r="B78" s="86"/>
-      <c r="C78" s="52"/>
+    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="63"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="59"/>
       <c r="D78" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E78" s="6">
         <v>1</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G78" s="89"/>
-      <c r="H78" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="I78" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="K78" s="68"/>
-      <c r="L78" s="73"/>
-      <c r="M78" s="73"/>
+        <v>146</v>
+      </c>
+      <c r="G78" s="91"/>
+      <c r="H78" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="I78" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="K78" s="74"/>
+      <c r="L78" s="97"/>
+      <c r="M78" s="97"/>
       <c r="N78" s="32">
         <v>30</v>
       </c>
-      <c r="O78" s="68"/>
-      <c r="P78" s="73"/>
-      <c r="Q78" s="73"/>
-      <c r="R78" s="72"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="57"/>
-      <c r="B79" s="86"/>
-      <c r="C79" s="53"/>
+      <c r="O78" s="74"/>
+      <c r="P78" s="97"/>
+      <c r="Q78" s="97"/>
+      <c r="R78" s="106"/>
+    </row>
+    <row r="79" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="63"/>
+      <c r="B79" s="88"/>
+      <c r="C79" s="60"/>
       <c r="D79" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="G79" s="89"/>
-      <c r="H79" s="69"/>
-      <c r="I79" s="74"/>
-      <c r="K79" s="68"/>
-      <c r="L79" s="73"/>
-      <c r="M79" s="73"/>
+        <v>147</v>
+      </c>
+      <c r="G79" s="91"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="76"/>
+      <c r="K79" s="74"/>
+      <c r="L79" s="97"/>
+      <c r="M79" s="97"/>
       <c r="N79" s="32">
         <v>30</v>
       </c>
-      <c r="O79" s="68"/>
-      <c r="P79" s="73"/>
-      <c r="Q79" s="73"/>
-      <c r="R79" s="72"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
-      <c r="B80" s="86"/>
+      <c r="O79" s="74"/>
+      <c r="P79" s="97"/>
+      <c r="Q79" s="97"/>
+      <c r="R79" s="106"/>
+    </row>
+    <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="63"/>
+      <c r="B80" s="88"/>
       <c r="C80" s="10">
         <v>852</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E80" s="6">
         <v>2</v>
       </c>
       <c r="F80" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="G80" s="89"/>
-      <c r="H80" s="69" t="s">
-        <v>133</v>
+        <v>83</v>
+      </c>
+      <c r="G80" s="91"/>
+      <c r="H80" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="K80" s="68"/>
-      <c r="L80" s="73"/>
-      <c r="M80" s="73"/>
+        <v>83</v>
+      </c>
+      <c r="K80" s="74"/>
+      <c r="L80" s="97"/>
+      <c r="M80" s="97"/>
       <c r="N80" s="32">
         <v>30</v>
       </c>
-      <c r="O80" s="68"/>
-      <c r="P80" s="73"/>
-      <c r="Q80" s="73"/>
-      <c r="R80" s="72"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
-      <c r="B81" s="86"/>
+      <c r="O80" s="74"/>
+      <c r="P80" s="97"/>
+      <c r="Q80" s="97"/>
+      <c r="R80" s="106"/>
+    </row>
+    <row r="81" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="63"/>
+      <c r="B81" s="88"/>
       <c r="C81" s="2">
         <v>853</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" s="6">
         <v>4</v>
       </c>
       <c r="F81" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="G81" s="90"/>
-      <c r="H81" s="69"/>
+        <v>105</v>
+      </c>
+      <c r="G81" s="92"/>
+      <c r="H81" s="75"/>
       <c r="I81" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="K81" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="L81" s="72"/>
-      <c r="M81" s="72"/>
+        <v>105</v>
+      </c>
+      <c r="K81" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="L81" s="106"/>
+      <c r="M81" s="106"/>
       <c r="N81" s="32">
         <v>30</v>
       </c>
-      <c r="O81" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="P81" s="72"/>
-      <c r="Q81" s="72"/>
+      <c r="O81" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P81" s="106"/>
+      <c r="Q81" s="106"/>
       <c r="R81" s="38"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
-      <c r="B82" s="86"/>
-      <c r="C82" s="48">
+    <row r="82" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="63"/>
+      <c r="B82" s="88"/>
+      <c r="C82" s="55">
         <v>851</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E82" s="8">
         <v>1</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G82" s="76" t="s">
-        <v>182</v>
+        <v>50</v>
+      </c>
+      <c r="G82" s="78" t="s">
+        <v>205</v>
       </c>
       <c r="H82" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="I82" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="I82" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="K82" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="L82" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M82" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="N82" s="32">
+        <v>30</v>
+      </c>
+      <c r="O82" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="P82" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q82" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="R82" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="63"/>
+      <c r="B83" s="88"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K82" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="L82" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="M82" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="N82" s="32">
-        <v>30</v>
-      </c>
-      <c r="O82" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P82" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q82" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="R82" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
-      <c r="B83" s="86"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="E83" s="8">
         <v>1</v>
       </c>
       <c r="F83" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" s="77"/>
+        <v>84</v>
+      </c>
+      <c r="G83" s="79"/>
       <c r="H83" s="54"/>
-      <c r="I83" s="67"/>
-      <c r="K83" s="58">
-        <v>30</v>
-      </c>
-      <c r="L83" s="61">
+      <c r="I83" s="73"/>
+      <c r="K83" s="64">
+        <v>30</v>
+      </c>
+      <c r="L83" s="67">
         <v>25</v>
       </c>
-      <c r="M83" s="64">
+      <c r="M83" s="70">
         <v>35</v>
       </c>
       <c r="N83" s="32">
         <v>30</v>
       </c>
-      <c r="O83" s="58">
-        <v>30</v>
-      </c>
-      <c r="P83" s="61">
+      <c r="O83" s="64">
+        <v>30</v>
+      </c>
+      <c r="P83" s="67">
         <v>25</v>
       </c>
-      <c r="Q83" s="64">
+      <c r="Q83" s="70">
         <v>35</v>
       </c>
-      <c r="R83" s="51">
+      <c r="R83" s="58">
         <f>SUM(K83:Q83)</f>
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
-      <c r="B84" s="86"/>
-      <c r="C84" s="49"/>
+    <row r="84" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="63"/>
+      <c r="B84" s="88"/>
+      <c r="C84" s="56"/>
       <c r="D84" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E84" s="8">
         <v>1</v>
       </c>
       <c r="F84" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="G84" s="77"/>
+        <v>148</v>
+      </c>
+      <c r="G84" s="79"/>
       <c r="H84" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="I84" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="K84" s="59"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="65"/>
+        <v>118</v>
+      </c>
+      <c r="I84" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="K84" s="65"/>
+      <c r="L84" s="68"/>
+      <c r="M84" s="71"/>
       <c r="N84" s="32">
         <v>30</v>
       </c>
-      <c r="O84" s="59"/>
-      <c r="P84" s="62"/>
-      <c r="Q84" s="65"/>
-      <c r="R84" s="52"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
-      <c r="B85" s="86"/>
-      <c r="C85" s="50"/>
+      <c r="O84" s="65"/>
+      <c r="P84" s="68"/>
+      <c r="Q84" s="71"/>
+      <c r="R84" s="59"/>
+    </row>
+    <row r="85" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="63"/>
+      <c r="B85" s="88"/>
+      <c r="C85" s="57"/>
       <c r="D85" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E85" s="8">
         <v>1</v>
       </c>
       <c r="F85" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="G85" s="77"/>
+        <v>149</v>
+      </c>
+      <c r="G85" s="79"/>
       <c r="H85" s="54"/>
-      <c r="I85" s="67"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="62"/>
-      <c r="M85" s="65"/>
+      <c r="I85" s="73"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="68"/>
+      <c r="M85" s="71"/>
       <c r="N85" s="32">
         <v>30</v>
       </c>
-      <c r="O85" s="59"/>
-      <c r="P85" s="62"/>
-      <c r="Q85" s="65"/>
-      <c r="R85" s="52"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
-      <c r="B86" s="86"/>
+      <c r="O85" s="65"/>
+      <c r="P85" s="68"/>
+      <c r="Q85" s="71"/>
+      <c r="R85" s="59"/>
+    </row>
+    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="63"/>
+      <c r="B86" s="88"/>
       <c r="C86" s="21">
         <v>852</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E86" s="8">
         <v>2</v>
       </c>
       <c r="F86" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="G86" s="77"/>
+        <v>85</v>
+      </c>
+      <c r="G86" s="79"/>
       <c r="H86" s="54" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="K86" s="60"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="66"/>
+        <v>85</v>
+      </c>
+      <c r="K86" s="66"/>
+      <c r="L86" s="69"/>
+      <c r="M86" s="72"/>
       <c r="N86" s="32">
         <v>30</v>
       </c>
-      <c r="O86" s="60"/>
-      <c r="P86" s="63"/>
-      <c r="Q86" s="66"/>
-      <c r="R86" s="53"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="57"/>
-      <c r="B87" s="87"/>
+      <c r="O86" s="66"/>
+      <c r="P86" s="69"/>
+      <c r="Q86" s="72"/>
+      <c r="R86" s="60"/>
+    </row>
+    <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="63"/>
+      <c r="B87" s="89"/>
       <c r="C87" s="11">
         <v>853</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E87" s="8">
         <v>4</v>
       </c>
       <c r="F87" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="G87" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="G87" s="80"/>
       <c r="H87" s="54"/>
       <c r="I87" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="K87" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="L87" s="71"/>
-      <c r="M87" s="71"/>
+        <v>106</v>
+      </c>
+      <c r="K87" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="L87" s="109"/>
+      <c r="M87" s="109"/>
       <c r="N87" s="32">
         <v>30</v>
       </c>
-      <c r="O87" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="P87" s="72"/>
-      <c r="Q87" s="72"/>
+      <c r="O87" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P87" s="106"/>
+      <c r="Q87" s="106"/>
       <c r="R87" s="38"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="57"/>
-      <c r="B88" s="85" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="51">
+    <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="63"/>
+      <c r="B88" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="58">
         <v>861</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E88" s="6">
         <v>1</v>
       </c>
       <c r="F88" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G88" s="96" t="s">
-        <v>188</v>
-      </c>
-      <c r="H88" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="I88" s="74" t="s">
-        <v>128</v>
+        <v>51</v>
+      </c>
+      <c r="G88" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="H88" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="I88" s="76" t="s">
+        <v>114</v>
       </c>
       <c r="K88" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="L88" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="M88" s="70"/>
+        <v>158</v>
+      </c>
+      <c r="L88" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="M88" s="108"/>
       <c r="N88" s="32">
         <v>30</v>
       </c>
       <c r="O88" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P88" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q88" s="70"/>
+        <v>158</v>
+      </c>
+      <c r="P88" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q88" s="108"/>
       <c r="R88" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="57"/>
-      <c r="B89" s="86"/>
-      <c r="C89" s="52"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="63"/>
+      <c r="B89" s="88"/>
+      <c r="C89" s="59"/>
       <c r="D89" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E89" s="6">
         <v>1</v>
       </c>
       <c r="F89" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="G89" s="97"/>
-      <c r="H89" s="69"/>
-      <c r="I89" s="74"/>
-      <c r="K89" s="68">
-        <v>30</v>
-      </c>
-      <c r="L89" s="73">
+        <v>86</v>
+      </c>
+      <c r="G89" s="100"/>
+      <c r="H89" s="75"/>
+      <c r="I89" s="76"/>
+      <c r="K89" s="74">
+        <v>30</v>
+      </c>
+      <c r="L89" s="97">
         <v>60</v>
       </c>
-      <c r="M89" s="73"/>
+      <c r="M89" s="97"/>
       <c r="N89" s="32">
         <v>30</v>
       </c>
-      <c r="O89" s="68">
-        <v>30</v>
-      </c>
-      <c r="P89" s="73">
+      <c r="O89" s="74">
+        <v>30</v>
+      </c>
+      <c r="P89" s="97">
         <v>60</v>
       </c>
-      <c r="Q89" s="73"/>
-      <c r="R89" s="72">
+      <c r="Q89" s="97"/>
+      <c r="R89" s="106">
         <f>SUM(K89:Q89)</f>
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="57"/>
-      <c r="B90" s="86"/>
-      <c r="C90" s="52"/>
+    <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="63"/>
+      <c r="B90" s="88"/>
+      <c r="C90" s="59"/>
       <c r="D90" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E90" s="6">
         <v>1</v>
       </c>
       <c r="F90" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="G90" s="97"/>
-      <c r="H90" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="I90" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="G90" s="100"/>
+      <c r="H90" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="I90" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="K90" s="74"/>
+      <c r="L90" s="97"/>
+      <c r="M90" s="97"/>
+      <c r="N90" s="32">
+        <v>30</v>
+      </c>
+      <c r="O90" s="74"/>
+      <c r="P90" s="97"/>
+      <c r="Q90" s="97"/>
+      <c r="R90" s="106"/>
+    </row>
+    <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="63"/>
+      <c r="B91" s="88"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K90" s="68"/>
-      <c r="L90" s="73"/>
-      <c r="M90" s="73"/>
-      <c r="N90" s="32">
-        <v>30</v>
-      </c>
-      <c r="O90" s="68"/>
-      <c r="P90" s="73"/>
-      <c r="Q90" s="73"/>
-      <c r="R90" s="72"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
-      <c r="B91" s="86"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="E91" s="6">
         <v>1</v>
       </c>
       <c r="F91" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="G91" s="97"/>
-      <c r="H91" s="69"/>
-      <c r="I91" s="74"/>
-      <c r="K91" s="68"/>
-      <c r="L91" s="73"/>
-      <c r="M91" s="73"/>
+        <v>153</v>
+      </c>
+      <c r="G91" s="100"/>
+      <c r="H91" s="75"/>
+      <c r="I91" s="76"/>
+      <c r="K91" s="74"/>
+      <c r="L91" s="97"/>
+      <c r="M91" s="97"/>
       <c r="N91" s="32">
         <v>30</v>
       </c>
-      <c r="O91" s="68"/>
-      <c r="P91" s="73"/>
-      <c r="Q91" s="73"/>
-      <c r="R91" s="72"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="57"/>
-      <c r="B92" s="86"/>
+      <c r="O91" s="74"/>
+      <c r="P91" s="97"/>
+      <c r="Q91" s="97"/>
+      <c r="R91" s="106"/>
+    </row>
+    <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="63"/>
+      <c r="B92" s="88"/>
       <c r="C92" s="2">
         <v>862</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E92" s="6">
         <v>2</v>
       </c>
       <c r="F92" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="G92" s="97"/>
-      <c r="H92" s="69" t="s">
-        <v>133</v>
+        <v>87</v>
+      </c>
+      <c r="G92" s="100"/>
+      <c r="H92" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="K92" s="68"/>
-      <c r="L92" s="73"/>
-      <c r="M92" s="73"/>
+        <v>120</v>
+      </c>
+      <c r="K92" s="74"/>
+      <c r="L92" s="97"/>
+      <c r="M92" s="97"/>
       <c r="N92" s="32">
         <v>30</v>
       </c>
-      <c r="O92" s="68"/>
-      <c r="P92" s="73"/>
-      <c r="Q92" s="73"/>
-      <c r="R92" s="72"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="86"/>
+      <c r="O92" s="74"/>
+      <c r="P92" s="97"/>
+      <c r="Q92" s="97"/>
+      <c r="R92" s="106"/>
+    </row>
+    <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="63"/>
+      <c r="B93" s="88"/>
       <c r="C93" s="2">
         <v>863</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93" s="6">
         <v>4</v>
       </c>
       <c r="F93" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="G93" s="98"/>
-      <c r="H93" s="69"/>
+        <v>107</v>
+      </c>
+      <c r="G93" s="101"/>
+      <c r="H93" s="75"/>
       <c r="I93" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="K93" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="L93" s="72"/>
-      <c r="M93" s="72"/>
+        <v>157</v>
+      </c>
+      <c r="K93" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="L93" s="106"/>
+      <c r="M93" s="106"/>
       <c r="N93" s="32">
         <v>30</v>
       </c>
-      <c r="O93" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="P93" s="72"/>
-      <c r="Q93" s="72"/>
+      <c r="O93" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P93" s="106"/>
+      <c r="Q93" s="106"/>
       <c r="R93" s="38"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="57"/>
-      <c r="B94" s="86"/>
-      <c r="C94" s="48">
+    <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="63"/>
+      <c r="B94" s="88"/>
+      <c r="C94" s="55">
         <v>861</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E94" s="8">
         <v>1</v>
       </c>
       <c r="F94" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G94" s="99" t="s">
-        <v>189</v>
+        <v>52</v>
+      </c>
+      <c r="G94" s="102" t="s">
+        <v>168</v>
       </c>
       <c r="H94" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="I94" s="67" t="s">
-        <v>129</v>
+        <v>117</v>
+      </c>
+      <c r="I94" s="73" t="s">
+        <v>115</v>
       </c>
       <c r="K94" s="30" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L94" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="M94" s="34" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="N94" s="32">
         <v>30</v>
       </c>
       <c r="O94" s="30" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="P94" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="Q94" s="34" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="R94" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
-      <c r="B95" s="86"/>
-      <c r="C95" s="49"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="63"/>
+      <c r="B95" s="88"/>
+      <c r="C95" s="56"/>
       <c r="D95" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E95" s="8">
         <v>1</v>
       </c>
       <c r="F95" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="G95" s="100"/>
+        <v>88</v>
+      </c>
+      <c r="G95" s="103"/>
       <c r="H95" s="54"/>
-      <c r="I95" s="67"/>
-      <c r="K95" s="58">
-        <v>30</v>
-      </c>
-      <c r="L95" s="61">
+      <c r="I95" s="73"/>
+      <c r="K95" s="64">
+        <v>30</v>
+      </c>
+      <c r="L95" s="67">
         <v>25</v>
       </c>
-      <c r="M95" s="64">
+      <c r="M95" s="70">
         <v>35</v>
       </c>
       <c r="N95" s="32">
         <v>30</v>
       </c>
-      <c r="O95" s="58">
-        <v>30</v>
-      </c>
-      <c r="P95" s="61">
+      <c r="O95" s="64">
+        <v>30</v>
+      </c>
+      <c r="P95" s="67">
         <v>25</v>
       </c>
-      <c r="Q95" s="64">
+      <c r="Q95" s="70">
         <v>35</v>
       </c>
-      <c r="R95" s="51">
+      <c r="R95" s="58">
         <f>SUM(K95:Q95)</f>
         <v>210</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="57"/>
-      <c r="B96" s="86"/>
-      <c r="C96" s="49"/>
+    <row r="96" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="63"/>
+      <c r="B96" s="88"/>
+      <c r="C96" s="56"/>
       <c r="D96" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E96" s="8">
         <v>1</v>
       </c>
       <c r="F96" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="G96" s="100"/>
+        <v>150</v>
+      </c>
+      <c r="G96" s="103"/>
       <c r="H96" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="I96" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="K96" s="59"/>
-      <c r="L96" s="62"/>
-      <c r="M96" s="65"/>
+        <v>118</v>
+      </c>
+      <c r="I96" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="K96" s="65"/>
+      <c r="L96" s="68"/>
+      <c r="M96" s="71"/>
       <c r="N96" s="32">
         <v>30</v>
       </c>
-      <c r="O96" s="59"/>
-      <c r="P96" s="62"/>
-      <c r="Q96" s="65"/>
-      <c r="R96" s="52"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="57"/>
-      <c r="B97" s="86"/>
-      <c r="C97" s="50"/>
+      <c r="O96" s="65"/>
+      <c r="P96" s="68"/>
+      <c r="Q96" s="71"/>
+      <c r="R96" s="59"/>
+    </row>
+    <row r="97" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="63"/>
+      <c r="B97" s="88"/>
+      <c r="C97" s="57"/>
       <c r="D97" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E97" s="8">
         <v>1</v>
       </c>
       <c r="F97" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="G97" s="100"/>
+        <v>151</v>
+      </c>
+      <c r="G97" s="103"/>
       <c r="H97" s="54"/>
-      <c r="I97" s="67"/>
-      <c r="K97" s="59"/>
-      <c r="L97" s="62"/>
-      <c r="M97" s="65"/>
+      <c r="I97" s="73"/>
+      <c r="K97" s="65"/>
+      <c r="L97" s="68"/>
+      <c r="M97" s="71"/>
       <c r="N97" s="32">
         <v>30</v>
       </c>
-      <c r="O97" s="59"/>
-      <c r="P97" s="62"/>
-      <c r="Q97" s="65"/>
-      <c r="R97" s="52"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="57"/>
-      <c r="B98" s="86"/>
+      <c r="O97" s="65"/>
+      <c r="P97" s="68"/>
+      <c r="Q97" s="71"/>
+      <c r="R97" s="59"/>
+    </row>
+    <row r="98" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="63"/>
+      <c r="B98" s="88"/>
       <c r="C98" s="11">
         <v>862</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E98" s="8">
         <v>2</v>
       </c>
       <c r="F98" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G98" s="100"/>
+        <v>89</v>
+      </c>
+      <c r="G98" s="103"/>
       <c r="H98" s="54" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="I98" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="K98" s="60"/>
-      <c r="L98" s="63"/>
-      <c r="M98" s="66"/>
+        <v>121</v>
+      </c>
+      <c r="K98" s="66"/>
+      <c r="L98" s="69"/>
+      <c r="M98" s="72"/>
       <c r="N98" s="32">
         <v>30</v>
       </c>
-      <c r="O98" s="60"/>
-      <c r="P98" s="63"/>
-      <c r="Q98" s="66"/>
-      <c r="R98" s="53"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="57"/>
-      <c r="B99" s="87"/>
+      <c r="O98" s="66"/>
+      <c r="P98" s="69"/>
+      <c r="Q98" s="72"/>
+      <c r="R98" s="60"/>
+    </row>
+    <row r="99" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="82"/>
+      <c r="B99" s="89"/>
       <c r="C99" s="11">
         <v>863</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E99" s="8">
         <v>4</v>
       </c>
       <c r="F99" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="G99" s="101"/>
+        <v>108</v>
+      </c>
+      <c r="G99" s="104"/>
       <c r="H99" s="54"/>
       <c r="I99" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="K99" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="L99" s="71"/>
-      <c r="M99" s="71"/>
+        <v>156</v>
+      </c>
+      <c r="K99" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="L99" s="109"/>
+      <c r="M99" s="109"/>
       <c r="N99" s="32">
         <v>30</v>
       </c>
-      <c r="O99" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="P99" s="72"/>
-      <c r="Q99" s="72"/>
+      <c r="O99" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P99" s="106"/>
+      <c r="Q99" s="106"/>
       <c r="R99" s="38"/>
     </row>
     <row r="100" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="B100" s="95"/>
-      <c r="C100" s="95"/>
-      <c r="D100" s="95"/>
+      <c r="A100" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100" s="98"/>
+      <c r="C100" s="98"/>
+      <c r="D100" s="98"/>
       <c r="E100" s="15">
         <f>SUM(E2:E99)</f>
         <v>168</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H100" s="9"/>
     </row>
     <row r="102" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="102" t="s">
-        <v>187</v>
-      </c>
-      <c r="B102" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" s="72">
+      <c r="A102" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="B102" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="106">
         <v>871</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E102" s="6">
         <v>1</v>
       </c>
       <c r="F102" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G102" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="H102" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="I102" s="75">
+        <v>53</v>
+      </c>
+      <c r="G102" s="94" t="s">
+        <v>207</v>
+      </c>
+      <c r="H102" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="I102" s="77">
         <v>871</v>
       </c>
       <c r="K102" s="30" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L102" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="M102" s="34" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="N102" s="32">
         <v>30</v>
       </c>
       <c r="O102" s="30" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="P102" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="Q102" s="34" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="R102" s="24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="102"/>
-      <c r="B103" s="84"/>
-      <c r="C103" s="72"/>
+      <c r="A103" s="105"/>
+      <c r="B103" s="86"/>
+      <c r="C103" s="106"/>
       <c r="D103" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E103" s="6">
         <v>1</v>
       </c>
       <c r="F103" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G103" s="92"/>
-      <c r="H103" s="69"/>
-      <c r="I103" s="75"/>
-      <c r="K103" s="58">
-        <v>30</v>
-      </c>
-      <c r="L103" s="61">
+        <v>14</v>
+      </c>
+      <c r="G103" s="94"/>
+      <c r="H103" s="75"/>
+      <c r="I103" s="77"/>
+      <c r="K103" s="64">
+        <v>30</v>
+      </c>
+      <c r="L103" s="67">
         <v>35</v>
       </c>
-      <c r="M103" s="64">
+      <c r="M103" s="70">
         <v>55</v>
       </c>
       <c r="N103" s="32">
         <v>30</v>
       </c>
-      <c r="O103" s="58">
-        <v>30</v>
-      </c>
-      <c r="P103" s="104">
+      <c r="O103" s="64">
+        <v>30</v>
+      </c>
+      <c r="P103" s="114">
         <v>35</v>
       </c>
-      <c r="Q103" s="64">
+      <c r="Q103" s="70">
         <v>25</v>
       </c>
-      <c r="R103" s="51">
+      <c r="R103" s="58">
         <f>SUM(K103:Q103)</f>
         <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="102"/>
-      <c r="B104" s="84"/>
-      <c r="C104" s="72"/>
+      <c r="A104" s="105"/>
+      <c r="B104" s="86"/>
+      <c r="C104" s="106"/>
       <c r="D104" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E104" s="6">
         <v>1</v>
       </c>
       <c r="F104" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="G104" s="92"/>
-      <c r="H104" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="I104" s="75">
+        <v>154</v>
+      </c>
+      <c r="G104" s="94"/>
+      <c r="H104" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="I104" s="77">
         <v>871</v>
       </c>
-      <c r="K104" s="59"/>
-      <c r="L104" s="62"/>
-      <c r="M104" s="65"/>
+      <c r="K104" s="65"/>
+      <c r="L104" s="68"/>
+      <c r="M104" s="71"/>
       <c r="N104" s="32">
         <v>30</v>
       </c>
-      <c r="O104" s="59"/>
-      <c r="P104" s="109"/>
-      <c r="Q104" s="65"/>
-      <c r="R104" s="52"/>
+      <c r="O104" s="65"/>
+      <c r="P104" s="115"/>
+      <c r="Q104" s="71"/>
+      <c r="R104" s="59"/>
     </row>
     <row r="105" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="102"/>
-      <c r="B105" s="84"/>
-      <c r="C105" s="72"/>
+      <c r="A105" s="105"/>
+      <c r="B105" s="86"/>
+      <c r="C105" s="106"/>
       <c r="D105" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E105" s="6">
         <v>1</v>
       </c>
       <c r="F105" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="G105" s="92"/>
-      <c r="H105" s="69"/>
-      <c r="I105" s="75"/>
-      <c r="K105" s="59"/>
-      <c r="L105" s="62"/>
-      <c r="M105" s="65"/>
+        <v>155</v>
+      </c>
+      <c r="G105" s="94"/>
+      <c r="H105" s="75"/>
+      <c r="I105" s="77"/>
+      <c r="K105" s="65"/>
+      <c r="L105" s="68"/>
+      <c r="M105" s="71"/>
       <c r="N105" s="32">
         <v>30</v>
       </c>
-      <c r="O105" s="59"/>
-      <c r="P105" s="109"/>
-      <c r="Q105" s="65"/>
-      <c r="R105" s="52"/>
+      <c r="O105" s="65"/>
+      <c r="P105" s="115"/>
+      <c r="Q105" s="71"/>
+      <c r="R105" s="59"/>
     </row>
     <row r="106" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="102"/>
-      <c r="B106" s="84"/>
+      <c r="A106" s="105"/>
+      <c r="B106" s="86"/>
       <c r="C106" s="2">
         <v>872</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E106" s="6">
         <v>2</v>
       </c>
       <c r="F106" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G106" s="92"/>
-      <c r="H106" s="69" t="s">
-        <v>133</v>
+        <v>90</v>
+      </c>
+      <c r="G106" s="94"/>
+      <c r="H106" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="I106" s="16">
         <v>872</v>
       </c>
-      <c r="K106" s="60"/>
-      <c r="L106" s="63"/>
-      <c r="M106" s="66"/>
+      <c r="K106" s="66"/>
+      <c r="L106" s="69"/>
+      <c r="M106" s="72"/>
       <c r="N106" s="32">
         <v>30</v>
       </c>
-      <c r="O106" s="60"/>
-      <c r="P106" s="110"/>
-      <c r="Q106" s="66"/>
-      <c r="R106" s="53"/>
+      <c r="O106" s="66"/>
+      <c r="P106" s="116"/>
+      <c r="Q106" s="72"/>
+      <c r="R106" s="60"/>
     </row>
     <row r="107" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="102"/>
-      <c r="B107" s="84"/>
+      <c r="A107" s="105"/>
+      <c r="B107" s="86"/>
       <c r="C107" s="2">
         <v>873</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E107" s="6">
         <v>4</v>
       </c>
       <c r="F107" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="G107" s="92"/>
-      <c r="H107" s="69"/>
+        <v>109</v>
+      </c>
+      <c r="G107" s="94"/>
+      <c r="H107" s="75"/>
       <c r="I107" s="16">
         <v>873</v>
       </c>
-      <c r="K107" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="L107" s="71"/>
-      <c r="M107" s="71"/>
+      <c r="K107" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="L107" s="109"/>
+      <c r="M107" s="109"/>
       <c r="N107" s="32">
         <v>30</v>
       </c>
-      <c r="O107" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="P107" s="71"/>
-      <c r="Q107" s="113"/>
+      <c r="O107" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="P107" s="109"/>
+      <c r="Q107" s="119"/>
       <c r="R107" s="38"/>
     </row>
     <row r="108" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="B108" s="95"/>
-      <c r="C108" s="95"/>
-      <c r="D108" s="95"/>
+      <c r="A108" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" s="98"/>
+      <c r="C108" s="98"/>
+      <c r="D108" s="98"/>
       <c r="E108" s="15">
         <f>SUM(E102:E107)</f>
         <v>10</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H108" s="9"/>
     </row>
@@ -5993,7 +5994,6 @@
     </row>
   </sheetData>
   <mergeCells count="306">
-    <mergeCell ref="T31:V32"/>
     <mergeCell ref="S27:S30"/>
     <mergeCell ref="S31:S32"/>
     <mergeCell ref="R89:R92"/>
@@ -6016,7 +6016,7 @@
     <mergeCell ref="L34:L37"/>
     <mergeCell ref="M34:M37"/>
     <mergeCell ref="M46:M49"/>
-    <mergeCell ref="M103:M106"/>
+    <mergeCell ref="Q46:Q49"/>
     <mergeCell ref="O103:O106"/>
     <mergeCell ref="Q103:Q106"/>
     <mergeCell ref="R103:R106"/>
@@ -6040,6 +6040,7 @@
     <mergeCell ref="L46:L49"/>
     <mergeCell ref="K50:M50"/>
     <mergeCell ref="T27:V30"/>
+    <mergeCell ref="T31:V32"/>
     <mergeCell ref="K1:T1"/>
     <mergeCell ref="O26:V26"/>
     <mergeCell ref="Q19:R21"/>
@@ -6075,8 +6076,7 @@
     <mergeCell ref="O38:Q38"/>
     <mergeCell ref="P34:P37"/>
     <mergeCell ref="P3:P5"/>
-    <mergeCell ref="Q46:Q49"/>
-    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="P7:P9"/>
     <mergeCell ref="R46:R49"/>
     <mergeCell ref="K103:K106"/>
     <mergeCell ref="P103:P106"/>
@@ -6100,6 +6100,7 @@
     <mergeCell ref="L89:M92"/>
     <mergeCell ref="L103:L106"/>
     <mergeCell ref="O89:O92"/>
+    <mergeCell ref="M103:M106"/>
     <mergeCell ref="P89:Q92"/>
     <mergeCell ref="K99:M99"/>
     <mergeCell ref="O99:Q99"/>
@@ -6118,7 +6119,9 @@
     <mergeCell ref="R77:R80"/>
     <mergeCell ref="O81:Q81"/>
     <mergeCell ref="O75:Q75"/>
-    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="L77:M80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="K75:M75"/>
     <mergeCell ref="M7:M9"/>
     <mergeCell ref="M19:M21"/>
     <mergeCell ref="P19:P21"/>
@@ -6154,6 +6157,9 @@
     <mergeCell ref="O34:O37"/>
     <mergeCell ref="K38:M38"/>
     <mergeCell ref="O46:O49"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="O65:O68"/>
+    <mergeCell ref="K40:K43"/>
     <mergeCell ref="K3:L5"/>
     <mergeCell ref="H90:H91"/>
     <mergeCell ref="I82:I83"/>
@@ -6166,6 +6172,18 @@
     <mergeCell ref="I72:I73"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L9"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="L65:M68"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="K77:K80"/>
     <mergeCell ref="G70:G75"/>
     <mergeCell ref="H74:H75"/>
     <mergeCell ref="M3:M5"/>
@@ -6256,23 +6274,8 @@
     <mergeCell ref="I96:I97"/>
     <mergeCell ref="I102:I103"/>
     <mergeCell ref="I104:I105"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="H86:H87"/>
     <mergeCell ref="H92:H93"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H84:H85"/>
     <mergeCell ref="H88:H89"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="L65:M68"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="K77:K80"/>
-    <mergeCell ref="L77:M80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="K75:M75"/>
     <mergeCell ref="H70:H71"/>
     <mergeCell ref="H72:H73"/>
     <mergeCell ref="C57:C60"/>
@@ -6297,8 +6300,6 @@
     <mergeCell ref="I35:I36"/>
     <mergeCell ref="R58:R61"/>
     <mergeCell ref="K52:K55"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="O65:O68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6327,449 +6328,442 @@
   <sheetData>
     <row r="1" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="129" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="130" t="s">
-        <v>18</v>
+      <c r="F1" s="132" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="49">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="135" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="52">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="107" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" s="107"/>
+      <c r="L3" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="52"/>
+    </row>
+    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="120">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="121" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="127" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="136">
+      <c r="B4" s="49">
+        <v>101</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="51">
+        <v>30</v>
+      </c>
+      <c r="G4" s="129">
+        <v>90</v>
+      </c>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="133">
+        <v>60</v>
+      </c>
+      <c r="K4" s="134"/>
+      <c r="L4" s="129">
+        <v>90</v>
+      </c>
+      <c r="M4" s="130"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="52">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="119" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="132" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="103" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="103"/>
-      <c r="L3" s="132" t="s">
-        <v>175</v>
-      </c>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="136"/>
-    </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="120">
-        <v>101</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="121" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="131">
-        <v>30</v>
-      </c>
-      <c r="G4" s="133">
+    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="105"/>
+      <c r="B5" s="49">
+        <v>102</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="51">
+        <v>30</v>
+      </c>
+      <c r="G5" s="129">
         <v>90</v>
       </c>
-      <c r="H4" s="134"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="125">
+      <c r="H5" s="130"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="133">
         <v>60</v>
       </c>
-      <c r="K4" s="126"/>
-      <c r="L4" s="133">
+      <c r="K5" s="134"/>
+      <c r="L5" s="129">
         <v>90</v>
       </c>
-      <c r="M4" s="134"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="136">
+      <c r="M5" s="130"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="52">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="120">
-        <v>102</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="121" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="131">
-        <v>30</v>
-      </c>
-      <c r="G5" s="133">
+    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="105"/>
+      <c r="B6" s="49">
+        <v>103</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="51">
+        <v>30</v>
+      </c>
+      <c r="G6" s="129">
         <v>90</v>
       </c>
-      <c r="H5" s="134"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="125">
+      <c r="H6" s="130"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="133">
         <v>60</v>
       </c>
-      <c r="K5" s="126"/>
-      <c r="L5" s="133">
+      <c r="K6" s="134"/>
+      <c r="L6" s="129">
         <v>90</v>
       </c>
-      <c r="M5" s="134"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="136">
+      <c r="M6" s="130"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="52">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="120">
-        <v>103</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="121" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="131">
-        <v>30</v>
-      </c>
-      <c r="G6" s="133">
+    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="105"/>
+      <c r="B7" s="49">
+        <v>104</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="51">
+        <v>30</v>
+      </c>
+      <c r="G7" s="129">
         <v>90</v>
       </c>
-      <c r="H6" s="134"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="125">
+      <c r="H7" s="130"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="133">
         <v>60</v>
       </c>
-      <c r="K6" s="126"/>
-      <c r="L6" s="133">
+      <c r="K7" s="134"/>
+      <c r="L7" s="129">
         <v>90</v>
       </c>
-      <c r="M6" s="134"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="136">
+      <c r="M7" s="130"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="52">
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="120">
-        <v>104</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="121" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="131">
-        <v>30</v>
-      </c>
-      <c r="G7" s="133">
+    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="105"/>
+      <c r="B8" s="49">
+        <v>105</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="51">
+        <v>30</v>
+      </c>
+      <c r="G8" s="129">
         <v>90</v>
       </c>
-      <c r="H7" s="134"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="125">
+      <c r="H8" s="130"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="133">
         <v>60</v>
       </c>
-      <c r="K7" s="126"/>
-      <c r="L7" s="133">
+      <c r="K8" s="134"/>
+      <c r="L8" s="129">
         <v>90</v>
       </c>
-      <c r="M7" s="134"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="136">
+      <c r="M8" s="130"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="52">
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102"/>
-      <c r="B8" s="120">
-        <v>105</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="121" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="131">
-        <v>30</v>
-      </c>
-      <c r="G8" s="133">
+    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="105"/>
+      <c r="B9" s="49">
+        <v>106</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="51">
+        <v>30</v>
+      </c>
+      <c r="G9" s="129">
         <v>90</v>
       </c>
-      <c r="H8" s="134"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="125">
+      <c r="H9" s="130"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="133">
         <v>60</v>
       </c>
-      <c r="K8" s="126"/>
-      <c r="L8" s="133">
+      <c r="K9" s="134"/>
+      <c r="L9" s="129">
         <v>90</v>
       </c>
-      <c r="M8" s="134"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="136">
+      <c r="M9" s="130"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="52">
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102"/>
-      <c r="B9" s="120">
-        <v>106</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="131">
-        <v>30</v>
-      </c>
-      <c r="G9" s="133">
+    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="105"/>
+      <c r="B10" s="49">
+        <v>107</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="51">
+        <v>30</v>
+      </c>
+      <c r="G10" s="129">
         <v>90</v>
       </c>
-      <c r="H9" s="134"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="125">
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="133">
         <v>60</v>
       </c>
-      <c r="K9" s="126"/>
-      <c r="L9" s="133">
+      <c r="K10" s="134"/>
+      <c r="L10" s="129">
         <v>90</v>
       </c>
-      <c r="M9" s="134"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="136">
+      <c r="M10" s="130"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="52">
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="102"/>
-      <c r="B10" s="120">
-        <v>107</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="121" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="131">
-        <v>30</v>
-      </c>
-      <c r="G10" s="133">
+    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="105"/>
+      <c r="B11" s="49">
+        <v>108</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="51">
+        <v>30</v>
+      </c>
+      <c r="G11" s="129">
         <v>90</v>
       </c>
-      <c r="H10" s="134"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="125">
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="133">
         <v>60</v>
       </c>
-      <c r="K10" s="126"/>
-      <c r="L10" s="133">
+      <c r="K11" s="134"/>
+      <c r="L11" s="129">
         <v>90</v>
       </c>
-      <c r="M10" s="134"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="136">
+      <c r="M11" s="130"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="52">
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
-      <c r="B11" s="120">
-        <v>108</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="121" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="131">
-        <v>30</v>
-      </c>
-      <c r="G11" s="133">
+    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="105"/>
+      <c r="B12" s="49">
+        <v>109</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="51">
+        <v>30</v>
+      </c>
+      <c r="G12" s="129">
         <v>90</v>
       </c>
-      <c r="H11" s="134"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="125">
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="133">
         <v>60</v>
       </c>
-      <c r="K11" s="126"/>
-      <c r="L11" s="133">
+      <c r="K12" s="134"/>
+      <c r="L12" s="129">
         <v>90</v>
       </c>
-      <c r="M11" s="134"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="136">
+      <c r="M12" s="130"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="52">
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="120">
-        <v>109</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="121" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="131">
-        <v>30</v>
-      </c>
-      <c r="G12" s="133">
+    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="105"/>
+      <c r="B13" s="49">
+        <v>110</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="51">
+        <v>30</v>
+      </c>
+      <c r="G13" s="129">
         <v>90</v>
       </c>
-      <c r="H12" s="134"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="125">
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="133">
         <v>60</v>
       </c>
-      <c r="K12" s="126"/>
-      <c r="L12" s="133">
+      <c r="K13" s="134"/>
+      <c r="L13" s="129">
         <v>90</v>
       </c>
-      <c r="M12" s="134"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="136">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
-      <c r="B13" s="120">
-        <v>110</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="121" t="s">
-        <v>207</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="131">
-        <v>30</v>
-      </c>
-      <c r="G13" s="133">
-        <v>90</v>
-      </c>
-      <c r="H13" s="134"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="125">
-        <v>60</v>
-      </c>
-      <c r="K13" s="126"/>
-      <c r="L13" s="133">
-        <v>90</v>
-      </c>
-      <c r="M13" s="134"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="136">
+      <c r="M13" s="130"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="52">
         <v>270</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
     <mergeCell ref="F1:N1"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="F2:N2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:N3"/>
@@ -6779,6 +6773,13 @@
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="L5:N5"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
